--- a/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
+++ b/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>推荐系统测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +26,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试集用户浏览过测试集用户浏览过的商品的比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>训练测试比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,8 +66,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试集用户浏览过训练集用户浏览过的商品的比率</t>
+    <t xml:space="preserve"> 0.9/0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有采用比较正规的方法（尝试了下MAE，结果很不好看），只是先看了看我们推荐的列表（对于测试用户集）其中有商品会被浏览的概率。</t>
+  </si>
+  <si>
+    <t>目前来看，在测试数据很有限的情况下(特别是当我把训练集的比例提高到0.9之后，依然有将近一半的概率测试用户会去浏览训练用户没有浏览过的页面，而这些页面是永远不可能被推荐的)，命中率我感觉还不错。</t>
+  </si>
+  <si>
+    <t>在没有新数据到位的情况下，我这接着会尝试把系统转移到bagsok上去，再尝试做做测试</t>
   </si>
 </sst>
 </file>
@@ -145,11 +158,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -165,7 +174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>测试集用户浏览过训练集用户浏览过的商品的比率</c:v>
+                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -277,20 +286,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="64280832"/>
-        <c:axId val="64290816"/>
+        <c:axId val="93845760"/>
+        <c:axId val="93855744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64280832"/>
+        <c:axId val="93845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64290816"/>
+        <c:crossAx val="93855744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -298,7 +307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64290816"/>
+        <c:axId val="93855744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +318,399 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64280832"/>
+        <c:crossAx val="93845760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.46153846153846001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为5的时候的命中率(可以看做侧边栏推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.17948717948717999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为10的时候的命中率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.21025641025641001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为20的时候的命中率(可以看做首页推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.27692307692307999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="93906816"/>
+        <c:axId val="93908352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93906816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93908352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93908352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93906816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$49:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.51546391752577003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为5的时候的命中率(可以看做侧边栏推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$50:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.2680412371134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为10的时候的命中率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$51:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.29896907216495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为20的时候的命中率(可以看做首页推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.36082474226804001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="95643136"/>
+        <c:axId val="95644672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95643136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95644672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95644672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95643136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -358,6 +759,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -653,15 +1114,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.3">
@@ -676,13 +1138,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="J3">
         <v>0.46153846153846001</v>
@@ -690,10 +1152,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>0.20512820512821001</v>
@@ -701,7 +1163,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0.23589743589744</v>
@@ -709,23 +1171,106 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>0.31282051282050999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0.46153846153846001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>10</v>
+      <c r="J27">
+        <v>0.17948717948717999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0.21025641025641001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>0.27692307692307999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0.51546391752577003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>0.2680412371134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>0.29896907216495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>0.36082474226804001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
+++ b/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>推荐系统测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,40 +50,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>训练测试比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未使用人工stopword列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0.8/0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人工stopword列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.9/0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>目前来看，在测试数据很有限的情况下(特别是当我把训练集的比例提高到0.9之后，依然有将近一半的概率测试用户会去浏览训练用户没有浏览过的页面，而这些页面是永远不可能被推荐的)，命中率我感觉还不错。</t>
+  </si>
+  <si>
+    <t>在没有新数据到位的情况下，我这接着会尝试把系统转移到bagsok上去，再尝试做做测试</t>
+  </si>
+  <si>
     <t>目前没有采用比较正规的方法（尝试了下MAE，结果很不好看），只是先看了看我们推荐的列表（对于测试用户集）其中有商品会被浏览的概率。</t>
-  </si>
-  <si>
-    <t>目前来看，在测试数据很有限的情况下(特别是当我把训练集的比例提高到0.9之后，依然有将近一半的概率测试用户会去浏览训练用户没有浏览过的页面，而这些页面是永远不可能被推荐的)，命中率我感觉还不错。</t>
-  </si>
-  <si>
-    <t>在没有新数据到位的情况下，我这接着会尝试把系统转移到bagsok上去，再尝试做做测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面一段话作废。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +94,15 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -127,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -187,7 +190,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.46153846153846001</c:v>
+                  <c:v>0.72839506172839996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -215,7 +218,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.20512820512821001</c:v>
+                  <c:v>0.2962962962963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -243,7 +246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.23589743589744</c:v>
+                  <c:v>0.35802469135802001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,7 +274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.31282051282050999</c:v>
+                  <c:v>0.46913580246914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,11 +289,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93845760"/>
-        <c:axId val="93855744"/>
+        <c:axId val="92731648"/>
+        <c:axId val="92741632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93845760"/>
+        <c:axId val="92731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +302,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93855744"/>
+        <c:crossAx val="92741632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -307,7 +310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93855744"/>
+        <c:axId val="92741632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +321,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93845760"/>
+        <c:crossAx val="92731648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -366,202 +369,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$26:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
-                  <c:v>0.46153846153846001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>推荐列表容量为5的时候的命中率(可以看做侧边栏推荐)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$27:$J$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
-                  <c:v>0.17948717948717999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>推荐列表容量为10的时候的命中率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$28:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
-                  <c:v>0.21025641025641001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>推荐列表容量为20的时候的命中率(可以看做首页推荐)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$29:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
-                  <c:v>0.27692307692307999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="93906816"/>
-        <c:axId val="93908352"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="93906816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93908352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93908352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93906816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -579,7 +386,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.51546391752577003</c:v>
+                  <c:v>0.84210526315789003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +414,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.2680412371134</c:v>
+                  <c:v>0.36842105263157998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,7 +442,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.29896907216495</c:v>
+                  <c:v>0.44736842105263003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,7 +470,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.36082474226804001</c:v>
+                  <c:v>0.55263157894737003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,11 +485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95643136"/>
-        <c:axId val="95644672"/>
+        <c:axId val="92792704"/>
+        <c:axId val="92794240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95643136"/>
+        <c:axId val="92792704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95644672"/>
+        <c:crossAx val="92794240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95644672"/>
+        <c:axId val="92794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95643136"/>
+        <c:crossAx val="92792704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -767,36 +574,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
@@ -818,7 +595,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1114,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1147,18 +924,18 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0.46153846153846001</v>
+        <v>0.72839506172839996</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.20512820512821001</v>
+        <v>0.2962962962963</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1166,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.23589743589744</v>
+        <v>0.35802469135802001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1174,50 +951,7 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.31282051282050999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>0.46153846153846001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27">
-        <v>0.17948717948717999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>0.21025641025641001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>0.27692307692307999</v>
+        <v>0.46913580246914</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1225,13 +959,13 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="J49">
-        <v>0.51546391752577003</v>
+        <v>0.84210526315789003</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1239,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="J50">
-        <v>0.2680412371134</v>
+        <v>0.36842105263157998</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -1247,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>0.29896907216495</v>
+        <v>0.44736842105263003</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -1255,22 +989,81 @@
         <v>6</v>
       </c>
       <c r="J52">
-        <v>0.36082474226804001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+        <v>0.55263157894737003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
+++ b/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>推荐系统测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>上面一段话作废。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹热门推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹热门推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,11 +297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92731648"/>
-        <c:axId val="92741632"/>
+        <c:axId val="94955776"/>
+        <c:axId val="94965760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92731648"/>
+        <c:axId val="94955776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92741632"/>
+        <c:crossAx val="94965760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -310,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92741632"/>
+        <c:axId val="94965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,7 +329,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92731648"/>
+        <c:crossAx val="94955776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -485,11 +493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92792704"/>
-        <c:axId val="92794240"/>
+        <c:axId val="95020928"/>
+        <c:axId val="95022464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92792704"/>
+        <c:axId val="95020928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92794240"/>
+        <c:crossAx val="95022464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -506,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92794240"/>
+        <c:axId val="95022464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +525,399 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92792704"/>
+        <c:crossAx val="95020928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.72839506172839996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为5的时候的命中率(可以看做侧边栏推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.28205128205127999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为10的时候的命中率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.38461538461537997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为20的时候的命中率(可以看做首页推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.44871794871795001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="95049216"/>
+        <c:axId val="95050752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95049216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95050752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95050752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95049216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>测试集用户浏览过测试集用户浏览过的商品的比率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$77:$J$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.84210526315789003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为5的时候的命中率(可以看做侧边栏推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$78:$J$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.35135135135134998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为10的时候的命中率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$79:$J$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.45945945945945998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>推荐列表容量为20的时候的命中率(可以看做首页推荐)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$80:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>0.51351351351351004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="96871552"/>
+        <c:axId val="96873088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96871552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96873088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96873088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96871552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -596,6 +996,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -891,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,6 +1412,50 @@
       </c>
       <c r="J6">
         <v>0.46913580246914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0.72839506172839996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>0.28205128205127999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0.38461538461537997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>0.44871794871795001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -1064,6 +1568,47 @@
     <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0.84210526315789003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>0.35135135135134998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>0.45945945945945998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>0.51351351351351004</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
+++ b/trunk/yangrui/thesexylingerie/推荐测试(未完成).xlsx
@@ -226,7 +226,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.2962962962963</c:v>
+                  <c:v>0.33333333333332998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,7 +254,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.35802469135802001</c:v>
+                  <c:v>0.41975308641975001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +282,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.46913580246914</c:v>
+                  <c:v>0.48148148148148001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,11 +297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94955776"/>
-        <c:axId val="94965760"/>
+        <c:axId val="93522176"/>
+        <c:axId val="93532160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94955776"/>
+        <c:axId val="93522176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94965760"/>
+        <c:crossAx val="93532160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -318,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94965760"/>
+        <c:axId val="93532160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,7 +329,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94955776"/>
+        <c:crossAx val="93522176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -422,7 +422,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.36842105263157998</c:v>
+                  <c:v>0.42105263157895001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,7 +450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.44736842105263003</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,7 +478,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>0.55263157894737003</c:v>
+                  <c:v>0.60526315789473994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,11 +493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95020928"/>
-        <c:axId val="95022464"/>
+        <c:axId val="93579136"/>
+        <c:axId val="93580672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95020928"/>
+        <c:axId val="93579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95022464"/>
+        <c:crossAx val="93580672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95022464"/>
+        <c:axId val="93580672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95020928"/>
+        <c:crossAx val="93579136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,11 +689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95049216"/>
-        <c:axId val="95050752"/>
+        <c:axId val="41702912"/>
+        <c:axId val="41704448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95049216"/>
+        <c:axId val="41702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95050752"/>
+        <c:crossAx val="41704448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -710,7 +710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95050752"/>
+        <c:axId val="41704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95049216"/>
+        <c:crossAx val="41702912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,11 +885,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96871552"/>
-        <c:axId val="96873088"/>
+        <c:axId val="41743488"/>
+        <c:axId val="41745024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96871552"/>
+        <c:axId val="41743488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96873088"/>
+        <c:crossAx val="41745024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96873088"/>
+        <c:axId val="41745024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96871552"/>
+        <c:crossAx val="41743488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.2962962962963</v>
+        <v>0.33333333333332998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1403,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.35802469135802001</v>
+        <v>0.41975308641975001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.46913580246914</v>
+        <v>0.48148148148148001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1477,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="J50">
-        <v>0.36842105263157998</v>
+        <v>0.42105263157895001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>0.44736842105263003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="J52">
-        <v>0.55263157894737003</v>
+        <v>0.60526315789473994</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.15">
